--- a/Aufgabe1/Aufgabe1-1.xlsx
+++ b/Aufgabe1/Aufgabe1-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="100">
   <si>
     <t>Hauptprogramm:</t>
   </si>
@@ -321,7 +321,13 @@
     <t>if i = 4 -&gt; case 4</t>
   </si>
   <si>
-    <t>i=4 (true)  Abbruch.</t>
+    <t xml:space="preserve">i=4 (true)  </t>
+  </si>
+  <si>
+    <t>i incrementieren i &lt; 5 (false)</t>
+  </si>
+  <si>
+    <t>ABBRUCH.</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC184"/>
+  <dimension ref="A3:AC199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="25" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="75" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3444,7 +3450,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>7</v>
       </c>
@@ -3460,7 +3466,7 @@
       </c>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>8</v>
       </c>
@@ -3476,7 +3482,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>9</v>
       </c>
@@ -3492,7 +3498,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>12</v>
       </c>
@@ -3506,7 +3512,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>16</v>
       </c>
@@ -3522,7 +3528,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>23</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>24</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>25</v>
       </c>
@@ -3575,6 +3581,225 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
+      <c r="J184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J186" s="1">
+        <v>31</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J187" s="1">
+        <v>32</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J188" s="1">
+        <v>33</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J189" s="1">
+        <v>35</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J190" s="1">
+        <v>36</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J191" s="1">
+        <v>37</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J192" s="1">
+        <v>38</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J193" s="1">
+        <v>39</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1">
+        <v>10</v>
+      </c>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J194" s="1">
+        <v>40</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1">
+        <v>50</v>
+      </c>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J195" s="1">
+        <v>41</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1">
+        <v>50</v>
+      </c>
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J196" s="1">
+        <v>42</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>7</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1">
+        <v>5</v>
+      </c>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
